--- a/DataLoading HRIS-First Load-13Apr2022.xlsx
+++ b/DataLoading HRIS-First Load-13Apr2022.xlsx
@@ -508,7 +508,7 @@
     <t xml:space="preserve">Chanel Freeman</t>
   </si>
   <si>
-    <t xml:space="preserve">CFreeman@USAT1.onmicrosoft.com</t>
+    <t xml:space="preserve">CFreeman@cantaloupe.com</t>
   </si>
   <si>
     <t xml:space="preserve">Client Support</t>
@@ -4285,8 +4285,8 @@
   </sheetPr>
   <dimension ref="A1:S346"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5197,7 +5197,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>159</v>
       </c>
@@ -14465,8 +14465,9 @@
   <autoFilter ref="N1:N345"/>
   <hyperlinks>
     <hyperlink ref="C15" r:id="rId1" display="vjones@cantaloupe.com"/>
-    <hyperlink ref="C343" r:id="rId2" display="dgranovsky@cantaloupe.com"/>
-    <hyperlink ref="C344" r:id="rId3" display="sprokhorov@cantaloupe.com"/>
+    <hyperlink ref="C32" r:id="rId2" display="CFreeman@cantaloupe"/>
+    <hyperlink ref="C343" r:id="rId3" display="dgranovsky@cantaloupe.com"/>
+    <hyperlink ref="C344" r:id="rId4" display="sprokhorov@cantaloupe.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -14475,6 +14476,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/DataLoading HRIS-First Load-13Apr2022.xlsx
+++ b/DataLoading HRIS-First Load-13Apr2022.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$N$1:$N$345</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$S$345</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -61,10 +61,10 @@
     <t xml:space="preserve">Hourly Rate</t>
   </si>
   <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vendor</t>
+    <t xml:space="preserve">Employee - NR Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vendor Company Name</t>
   </si>
   <si>
     <t xml:space="preserve">Odoo Role</t>
@@ -508,7 +508,7 @@
     <t xml:space="preserve">Chanel Freeman</t>
   </si>
   <si>
-    <t xml:space="preserve">CFreeman@cantaloupe.com</t>
+    <t xml:space="preserve">CFreeman@cantalopue.com</t>
   </si>
   <si>
     <t xml:space="preserve">Client Support</t>
@@ -4285,8 +4285,8 @@
   </sheetPr>
   <dimension ref="A1:S346"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5197,7 +5197,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>159</v>
       </c>
@@ -14461,11 +14461,79 @@
     <row r="349" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="350" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="351" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="352" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="353" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="354" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="355" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="356" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="357" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="358" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="359" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="360" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="361" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="362" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="363" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="364" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="365" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="366" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="367" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="368" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="369" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="370" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="371" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="372" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="373" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="374" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="375" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="376" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="377" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="378" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="379" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="380" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="381" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="382" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="383" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="384" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="385" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="386" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="387" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="388" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="389" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="390" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="391" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="392" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="393" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="394" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="395" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="396" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="397" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="398" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="399" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="400" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="401" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="402" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="403" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="404" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="405" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="406" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="407" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="408" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="409" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="410" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="411" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="412" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="413" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="414" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="415" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="416" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="417" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="418" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="419" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="N1:N345"/>
+  <autoFilter ref="A1:S345"/>
   <hyperlinks>
     <hyperlink ref="C15" r:id="rId1" display="vjones@cantaloupe.com"/>
-    <hyperlink ref="C32" r:id="rId2" display="CFreeman@cantaloupe"/>
+    <hyperlink ref="C32" r:id="rId2" display="CFreeman@cantalopue"/>
     <hyperlink ref="C343" r:id="rId3" display="dgranovsky@cantaloupe.com"/>
     <hyperlink ref="C344" r:id="rId4" display="sprokhorov@cantaloupe.com"/>
   </hyperlinks>

--- a/DataLoading HRIS-First Load-13Apr2022.xlsx
+++ b/DataLoading HRIS-First Load-13Apr2022.xlsx
@@ -4286,7 +4286,7 @@
   <dimension ref="A1:S346"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5197,7 +5197,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>159</v>
       </c>

--- a/DataLoading HRIS-First Load-13Apr2022.xlsx
+++ b/DataLoading HRIS-First Load-13Apr2022.xlsx
@@ -508,7 +508,7 @@
     <t xml:space="preserve">Chanel Freeman</t>
   </si>
   <si>
-    <t xml:space="preserve">CFreeman@cantalopue.com</t>
+    <t xml:space="preserve">p</t>
   </si>
   <si>
     <t xml:space="preserve">Client Support</t>
@@ -4013,12 +4013,6 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -4036,6 +4030,12 @@
     <font>
       <b val="true"/>
       <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -4143,7 +4143,7 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
@@ -4152,27 +4152,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4184,7 +4184,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4208,7 +4208,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
   </cellStyles>
   <colors>
@@ -4286,7 +4286,7 @@
   <dimension ref="A1:S346"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5197,7 +5197,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>159</v>
       </c>
@@ -14533,9 +14533,8 @@
   <autoFilter ref="A1:S345"/>
   <hyperlinks>
     <hyperlink ref="C15" r:id="rId1" display="vjones@cantaloupe.com"/>
-    <hyperlink ref="C32" r:id="rId2" display="CFreeman@cantalopue"/>
-    <hyperlink ref="C343" r:id="rId3" display="dgranovsky@cantaloupe.com"/>
-    <hyperlink ref="C344" r:id="rId4" display="sprokhorov@cantaloupe.com"/>
+    <hyperlink ref="C343" r:id="rId2" display="dgranovsky@cantaloupe.com"/>
+    <hyperlink ref="C344" r:id="rId3" display="sprokhorov@cantaloupe.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -14544,6 +14543,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>